--- a/tp1_fisica/estudio_aceleraciones_m71_mesa.xlsx
+++ b/tp1_fisica/estudio_aceleraciones_m71_mesa.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>m</t>
   </si>
@@ -34,9 +34,6 @@
     <t>2000,3593.00</t>
   </si>
   <si>
-    <t>2250,3577.00</t>
-  </si>
-  <si>
     <t>1000,254.00</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>2500,2961.00</t>
   </si>
   <si>
-    <t>2750,2941.00</t>
-  </si>
-  <si>
     <t>1500,579.00</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
     <t>2000,3010.00</t>
   </si>
   <si>
-    <t>134.60</t>
-  </si>
-  <si>
     <t>2250,385.00</t>
   </si>
   <si>
@@ -182,9 +173,6 @@
   </si>
   <si>
     <t>3250,2891.00</t>
-  </si>
-  <si>
-    <t>3500,2878.00</t>
   </si>
 </sst>
 </file>
@@ -493,28 +481,28 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>133.32</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>133.32</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -553,19 +541,19 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B14" s="2">
+        <v>138.68</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B15" s="2">
-        <v>138.68</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
@@ -592,19 +580,19 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>205.504</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B20" s="2">
-        <v>205.504</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
@@ -627,32 +615,32 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B25" s="3">
+        <v>227.654</v>
+      </c>
       <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B26" s="3">
-        <v>227.654</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -684,35 +672,35 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B31" s="2">
+        <v>249.724</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B33" s="2">
-        <v>249.724</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -737,8 +725,12 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B38" s="2">
+        <v>255.084</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>34</v>
       </c>
@@ -751,12 +743,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B40" s="2">
-        <v>255.084</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
         <v>36</v>
       </c>
@@ -783,8 +771,12 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B44" s="2">
+        <v>134.6</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>40</v>
       </c>
@@ -797,116 +789,91 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B50" s="2">
+        <v>206.784</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B52" s="2">
-        <v>206.784</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
